--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gip-Gipr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gip-Gipr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Gip</t>
+  </si>
+  <si>
+    <t>Gipr</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Gip</t>
-  </si>
-  <si>
-    <t>Gipr</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.4870623333333333</v>
+      </c>
+      <c r="H2">
+        <v>1.461187</v>
+      </c>
+      <c r="I2">
+        <v>0.8073404988294784</v>
+      </c>
+      <c r="J2">
+        <v>0.8073404988294784</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.08478666666666666</v>
-      </c>
-      <c r="H2">
-        <v>0.25436</v>
-      </c>
-      <c r="I2">
-        <v>0.1482675787955678</v>
-      </c>
-      <c r="J2">
-        <v>0.1482675787955678</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.1606193333333333</v>
+        <v>0.01627966666666667</v>
       </c>
       <c r="N2">
-        <v>0.481858</v>
+        <v>0.048839</v>
       </c>
       <c r="O2">
-        <v>0.4949621221848438</v>
+        <v>0.08178860127575414</v>
       </c>
       <c r="P2">
-        <v>0.5951538716163807</v>
+        <v>0.08178860127575413</v>
       </c>
       <c r="Q2">
-        <v>0.01361837787555555</v>
+        <v>0.007929212432555555</v>
       </c>
       <c r="R2">
-        <v>0.12256540088</v>
+        <v>0.07136291189299999</v>
       </c>
       <c r="S2">
-        <v>0.07338683545186279</v>
+        <v>0.06603125015253267</v>
       </c>
       <c r="T2">
-        <v>0.08824202355536898</v>
+        <v>0.06603125015253265</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.08478666666666666</v>
+        <v>0.4870623333333333</v>
       </c>
       <c r="H3">
-        <v>0.25436</v>
+        <v>1.461187</v>
       </c>
       <c r="I3">
-        <v>0.1482675787955678</v>
+        <v>0.8073404988294784</v>
       </c>
       <c r="J3">
-        <v>0.1482675787955678</v>
+        <v>0.8073404988294784</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.163889</v>
+        <v>0.1606193333333333</v>
       </c>
       <c r="N3">
-        <v>0.327778</v>
+        <v>0.481858</v>
       </c>
       <c r="O3">
-        <v>0.5050378778151563</v>
+        <v>0.8069471494816097</v>
       </c>
       <c r="P3">
-        <v>0.4048461283836193</v>
+        <v>0.8069471494816097</v>
       </c>
       <c r="Q3">
-        <v>0.01389560201333333</v>
+        <v>0.07823162727177778</v>
       </c>
       <c r="R3">
-        <v>0.08337361207999999</v>
+        <v>0.704084645446</v>
       </c>
       <c r="S3">
-        <v>0.07488074334370505</v>
+        <v>0.6514811141915086</v>
       </c>
       <c r="T3">
-        <v>0.06002555524019884</v>
+        <v>0.6514811141915086</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -664,40 +664,40 @@
         <v>1.461187</v>
       </c>
       <c r="I4">
-        <v>0.8517324212044323</v>
+        <v>0.8073404988294784</v>
       </c>
       <c r="J4">
-        <v>0.8517324212044323</v>
+        <v>0.8073404988294784</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1606193333333333</v>
+        <v>0.02214666666666667</v>
       </c>
       <c r="N4">
-        <v>0.481858</v>
+        <v>0.06644</v>
       </c>
       <c r="O4">
-        <v>0.4949621221848438</v>
+        <v>0.1112642492426361</v>
       </c>
       <c r="P4">
-        <v>0.5951538716163807</v>
+        <v>0.1112642492426361</v>
       </c>
       <c r="Q4">
-        <v>0.07823162727177778</v>
+        <v>0.01078680714222222</v>
       </c>
       <c r="R4">
-        <v>0.704084645446</v>
+        <v>0.09708126428</v>
       </c>
       <c r="S4">
-        <v>0.421575286732981</v>
+        <v>0.08982813448543725</v>
       </c>
       <c r="T4">
-        <v>0.5069118480610117</v>
+        <v>0.08982813448543725</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,176 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.4870623333333333</v>
+        <v>0.11623</v>
       </c>
       <c r="H5">
-        <v>1.461187</v>
+        <v>0.34869</v>
       </c>
       <c r="I5">
-        <v>0.8517324212044323</v>
+        <v>0.1926595011705215</v>
       </c>
       <c r="J5">
-        <v>0.8517324212044323</v>
+        <v>0.1926595011705215</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.163889</v>
+        <v>0.01627966666666667</v>
       </c>
       <c r="N5">
-        <v>0.327778</v>
+        <v>0.048839</v>
       </c>
       <c r="O5">
-        <v>0.5050378778151563</v>
+        <v>0.08178860127575414</v>
       </c>
       <c r="P5">
-        <v>0.4048461283836193</v>
+        <v>0.08178860127575413</v>
       </c>
       <c r="Q5">
-        <v>0.07982415874766667</v>
+        <v>0.001892185656666667</v>
       </c>
       <c r="R5">
-        <v>0.478944952486</v>
+        <v>0.01702967091</v>
       </c>
       <c r="S5">
-        <v>0.4301571344714513</v>
+        <v>0.01575735112322147</v>
       </c>
       <c r="T5">
-        <v>0.3448205731434205</v>
+        <v>0.01575735112322147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.11623</v>
+      </c>
+      <c r="H6">
+        <v>0.34869</v>
+      </c>
+      <c r="I6">
+        <v>0.1926595011705215</v>
+      </c>
+      <c r="J6">
+        <v>0.1926595011705215</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.1606193333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.481858</v>
+      </c>
+      <c r="O6">
+        <v>0.8069471494816097</v>
+      </c>
+      <c r="P6">
+        <v>0.8069471494816097</v>
+      </c>
+      <c r="Q6">
+        <v>0.01866878511333333</v>
+      </c>
+      <c r="R6">
+        <v>0.16801906602</v>
+      </c>
+      <c r="S6">
+        <v>0.1554660352901012</v>
+      </c>
+      <c r="T6">
+        <v>0.1554660352901012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.11623</v>
+      </c>
+      <c r="H7">
+        <v>0.34869</v>
+      </c>
+      <c r="I7">
+        <v>0.1926595011705215</v>
+      </c>
+      <c r="J7">
+        <v>0.1926595011705215</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.02214666666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.06644</v>
+      </c>
+      <c r="O7">
+        <v>0.1112642492426361</v>
+      </c>
+      <c r="P7">
+        <v>0.1112642492426361</v>
+      </c>
+      <c r="Q7">
+        <v>0.002574107066666667</v>
+      </c>
+      <c r="R7">
+        <v>0.0231669636</v>
+      </c>
+      <c r="S7">
+        <v>0.02143611475719885</v>
+      </c>
+      <c r="T7">
+        <v>0.02143611475719885</v>
       </c>
     </row>
   </sheetData>
